--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>0.2136185591327733</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.795041198154449</v>
+        <v>-1.825796744775104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04280005507700788</v>
+        <v>0.03880519454714673</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07915494644136942</v>
+        <v>-0.07069301964525691</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.239409380812677</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.837952107439348</v>
+        <v>-1.852065549890491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02062212565788119</v>
+        <v>0.01138578145408875</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06253802657779806</v>
+        <v>-0.06335494250175311</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2817668857493664</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.938823909837463</v>
+        <v>-1.951787531320496</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01794449085222826</v>
+        <v>-0.01101723269938394</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06695315021304649</v>
+        <v>-0.05575715220323469</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3297368278148848</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.982618630858973</v>
+        <v>-2.011157171547276</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03753945489330053</v>
+        <v>-0.03380273349933269</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06265765203101691</v>
+        <v>-0.05493866226015833</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3751128554938477</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.94034441230864</v>
+        <v>-1.987608271473496</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02124363493047451</v>
+        <v>-0.02653076515892352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07941151155814143</v>
+        <v>-0.06466137837243267</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4086175719170198</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.812896084056923</v>
+        <v>-1.869045281161522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01987918863262726</v>
+        <v>0.01421271979594479</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06887502756015462</v>
+        <v>-0.06503442090418095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4252996477376936</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.542531541648468</v>
+        <v>-1.61114933122245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648142927935346</v>
+        <v>0.05646254104989785</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0644803661734831</v>
+        <v>-0.06304013867749297</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4260563680458795</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.13748684013548</v>
+        <v>-1.224521440438241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04942667557768377</v>
+        <v>0.05927216518141958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04939181887669471</v>
+        <v>-0.05010170150040132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4213431601412366</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6317175070122185</v>
+        <v>-0.7224864676802653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04333679559737141</v>
+        <v>0.05694576492013716</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02084226005454283</v>
+        <v>-0.01585576747826225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4292153789252331</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1244819750774653</v>
+        <v>-0.2128914810826824</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05179219803667826</v>
+        <v>-0.03482112387081424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01772435645556662</v>
+        <v>0.02326490376254504</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4678710886947751</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4610279537404497</v>
+        <v>0.3662090418732963</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.231200471501652</v>
+        <v>-0.22772503728182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07825798382254848</v>
+        <v>0.08691351497058096</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5528588707086568</v>
       </c>
       <c r="E13" t="n">
-        <v>1.042683109730299</v>
+        <v>0.9337137659626528</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5128050844553154</v>
+        <v>-0.5271695829563054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1692174008042726</v>
+        <v>0.1800450783397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6865491571714827</v>
       </c>
       <c r="E14" t="n">
-        <v>1.63255621955246</v>
+        <v>1.511218233529632</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8229435160399177</v>
+        <v>-0.8472865087603935</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2729263726685323</v>
+        <v>0.2977943007659619</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8586564524326106</v>
       </c>
       <c r="E15" t="n">
-        <v>2.317227778993197</v>
+        <v>2.171516106877029</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.160253452705973</v>
+        <v>-1.188038038235173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.395249694661294</v>
+        <v>0.4168562551393885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.044923628139572</v>
       </c>
       <c r="E16" t="n">
-        <v>2.861079717746768</v>
+        <v>2.697268399754763</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.509397652135528</v>
+        <v>-1.538248635619409</v>
       </c>
       <c r="G16" t="n">
-        <v>0.523102545827185</v>
+        <v>0.53459288541268</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.225995940807901</v>
       </c>
       <c r="E17" t="n">
-        <v>3.359464540162447</v>
+        <v>3.195152684089869</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.850656802776927</v>
+        <v>-1.879574682073463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6429641019142324</v>
+        <v>0.6675156521682805</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.388664030857562</v>
       </c>
       <c r="E18" t="n">
-        <v>3.770768328711287</v>
+        <v>3.623007283699185</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.160394646495158</v>
+        <v>-2.207749011759489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7978853599091312</v>
+        <v>0.8146628297230752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.526659308771014</v>
       </c>
       <c r="E19" t="n">
-        <v>4.117815934671269</v>
+        <v>3.981660132640517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.513776105399254</v>
+        <v>-2.569837944442621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9414610880776948</v>
+        <v>0.9598110029938182</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.636299434560843</v>
       </c>
       <c r="E20" t="n">
-        <v>4.429882539679466</v>
+        <v>4.286446899212698</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.835351359919227</v>
+        <v>-2.905761957272371</v>
       </c>
       <c r="G20" t="n">
-        <v>1.062344182574466</v>
+        <v>1.093467262659945</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.717612197805794</v>
       </c>
       <c r="E21" t="n">
-        <v>4.64597175474723</v>
+        <v>4.528104480886871</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.107923464145307</v>
+        <v>-3.187002184799453</v>
       </c>
       <c r="G21" t="n">
-        <v>1.170720121133383</v>
+        <v>1.21165563642105</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.772979597140577</v>
       </c>
       <c r="E22" t="n">
-        <v>4.813729138676337</v>
+        <v>4.696862940977124</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.324553354781238</v>
+        <v>-3.423271899021414</v>
       </c>
       <c r="G22" t="n">
-        <v>1.255484198853667</v>
+        <v>1.307921071860678</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.808734411167726</v>
       </c>
       <c r="E23" t="n">
-        <v>4.926049569153232</v>
+        <v>4.814909653017311</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.464420693900018</v>
+        <v>-3.563250206488245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.332378180967448</v>
+        <v>1.390376063530015</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.832745635164086</v>
       </c>
       <c r="E24" t="n">
-        <v>4.995827410819613</v>
+        <v>4.884168068373663</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.579886801590833</v>
+        <v>-3.683250276257967</v>
       </c>
       <c r="G24" t="n">
-        <v>1.393643727225835</v>
+        <v>1.45487149702531</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.851557235834845</v>
       </c>
       <c r="E25" t="n">
-        <v>4.988959965393378</v>
+        <v>4.889648802954032</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.681525151301021</v>
+        <v>-3.784029211527925</v>
       </c>
       <c r="G25" t="n">
-        <v>1.432819489135888</v>
+        <v>1.494593443570455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.866721952463694</v>
       </c>
       <c r="E26" t="n">
-        <v>4.976814833853422</v>
+        <v>4.889746392139553</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.700090706836763</v>
+        <v>-3.797389485829526</v>
       </c>
       <c r="G26" t="n">
-        <v>1.457418259963575</v>
+        <v>1.523977232526896</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.87605795406358</v>
       </c>
       <c r="E27" t="n">
-        <v>4.933938552989191</v>
+        <v>4.861390437669321</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.655462542690525</v>
+        <v>-3.735546274553621</v>
       </c>
       <c r="G27" t="n">
-        <v>1.453376178860075</v>
+        <v>1.517145989540451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.875161148097583</v>
       </c>
       <c r="E28" t="n">
-        <v>4.78310502265231</v>
+        <v>4.712392213627877</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.58682979993489</v>
+        <v>-3.659894980536107</v>
       </c>
       <c r="G28" t="n">
-        <v>1.405688121542028</v>
+        <v>1.47413591705091</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.86097814996705</v>
       </c>
       <c r="E29" t="n">
-        <v>4.654435255562464</v>
+        <v>4.590232589623731</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.4978237406827</v>
+        <v>-3.567756623232529</v>
       </c>
       <c r="G29" t="n">
-        <v>1.361563643514606</v>
+        <v>1.425772605529825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.831771700782589</v>
       </c>
       <c r="E30" t="n">
-        <v>4.501862434096545</v>
+        <v>4.453994938598671</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.368865141084096</v>
+        <v>-3.455397629287161</v>
       </c>
       <c r="G30" t="n">
-        <v>1.309093716106047</v>
+        <v>1.371517740437711</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.789199959282795</v>
       </c>
       <c r="E31" t="n">
-        <v>4.346125834196813</v>
+        <v>4.306627398366894</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.247078559611697</v>
+        <v>-3.337743635017738</v>
       </c>
       <c r="G31" t="n">
-        <v>1.245046878060322</v>
+        <v>1.293547129244961</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.733884597070907</v>
       </c>
       <c r="E32" t="n">
-        <v>4.209283759829174</v>
+        <v>4.162440950779265</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.107740877927236</v>
+        <v>-3.203756831336138</v>
       </c>
       <c r="G32" t="n">
-        <v>1.175029785487504</v>
+        <v>1.227894791695509</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.667621848679038</v>
       </c>
       <c r="E33" t="n">
-        <v>4.004360636407916</v>
+        <v>3.961652775589664</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.983091155673192</v>
+        <v>-3.090964195122853</v>
       </c>
       <c r="G33" t="n">
-        <v>1.105634430467599</v>
+        <v>1.154408560979344</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.592017328493787</v>
       </c>
       <c r="E34" t="n">
-        <v>3.749002792301942</v>
+        <v>3.702529877745539</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.905263780220479</v>
+        <v>-3.008428141468769</v>
       </c>
       <c r="G34" t="n">
-        <v>1.046879444707687</v>
+        <v>1.094002429161187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.510046651640403</v>
       </c>
       <c r="E35" t="n">
-        <v>3.507979540333653</v>
+        <v>3.462076420699161</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.811897688002286</v>
+        <v>-2.926681458404018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9499340330076563</v>
+        <v>1.006099757313029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.424206179179742</v>
       </c>
       <c r="E36" t="n">
-        <v>3.247082722939821</v>
+        <v>3.212825770783833</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.748985717743019</v>
+        <v>-2.84677873873987</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8782484801662591</v>
+        <v>0.9322452061224792</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.337294545914406</v>
       </c>
       <c r="E37" t="n">
-        <v>3.000879374043331</v>
+        <v>2.957538757538317</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.651032146795795</v>
+        <v>-2.746680566739874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8267859249953331</v>
+        <v>0.8695205441386469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.250824333557892</v>
       </c>
       <c r="E38" t="n">
-        <v>2.711486514477472</v>
+        <v>2.683808962248521</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.564834137656006</v>
+        <v>-2.646581607730317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7593455017240839</v>
+        <v>0.8065660753631045</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.164664367519463</v>
       </c>
       <c r="E39" t="n">
-        <v>2.455396751480093</v>
+        <v>2.43283633541449</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.448788003918991</v>
+        <v>-2.543652562340662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6898509834995372</v>
+        <v>0.7369267473793982</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.078018542142546</v>
       </c>
       <c r="E40" t="n">
-        <v>2.219563040554732</v>
+        <v>2.20006566569918</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.3514058019128</v>
+        <v>-2.452035992375795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6389110026768831</v>
+        <v>0.675653331025405</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9906141619663322</v>
       </c>
       <c r="E41" t="n">
-        <v>2.018990505984749</v>
+        <v>1.997295800435862</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.257403805969601</v>
+        <v>-2.3514058019128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5744407534875282</v>
+        <v>0.6098042410857908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9037613322385889</v>
       </c>
       <c r="E42" t="n">
-        <v>1.762648899927962</v>
+        <v>1.757793050938749</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.160164052693887</v>
+        <v>-2.251354850486443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5051854861694193</v>
+        <v>0.5372624218424059</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8194555567020475</v>
       </c>
       <c r="E43" t="n">
-        <v>1.545753787070091</v>
+        <v>1.540520173491766</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.078267050803052</v>
+        <v>-2.170686370519783</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4521127094374026</v>
+        <v>0.4825589613007218</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.740425625661815</v>
       </c>
       <c r="E44" t="n">
-        <v>1.312677757645249</v>
+        <v>1.321005892816051</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.989698568866584</v>
+        <v>-2.081975439852836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4075065815588624</v>
+        <v>0.4249656016523297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6670818878914038</v>
       </c>
       <c r="E45" t="n">
-        <v>1.102606017678217</v>
+        <v>1.108577846224431</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.911975865685438</v>
+        <v>-1.999483458734149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3491246383306986</v>
+        <v>0.3633695113784698</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6007232794602471</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9015408151232667</v>
+        <v>0.9135600251335187</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.845287036544609</v>
+        <v>-1.931695964246653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2794742922131432</v>
+        <v>0.2956819671051764</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5402621810971429</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7397820180654376</v>
+        <v>0.7565217114204704</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.799607427625342</v>
+        <v>-1.877079074756641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2426863173101035</v>
+        <v>0.2529741062869248</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4857515657607179</v>
       </c>
       <c r="E48" t="n">
-        <v>0.579998615004841</v>
+        <v>0.5935981402128788</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.731886828950501</v>
+        <v>-1.81416316944957</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1997974442929024</v>
+        <v>0.2034035220998023</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4356942822113517</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4511840381558352</v>
+        <v>0.4696189501045089</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.68410905254254</v>
+        <v>-1.764652397989057</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1434837621901277</v>
+        <v>0.1572359672529318</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3913360353631821</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3552696089802565</v>
+        <v>0.3568546462354063</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.619032018981924</v>
+        <v>-1.708203350241851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1124362350224716</v>
+        <v>0.1173125462602611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3523596763712199</v>
       </c>
       <c r="E51" t="n">
-        <v>0.223294401735679</v>
+        <v>0.2293118768364116</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.570253953422376</v>
+        <v>-1.650061444929685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07501078237530515</v>
+        <v>0.08134463531941911</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3194072934334901</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1166734944970131</v>
+        <v>0.1219779389357964</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.523846360659507</v>
+        <v>-1.612449471016645</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04563171547622782</v>
+        <v>0.04803052061709006</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2914703037920242</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02233151042361373</v>
+        <v>0.03802290704386029</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.509429919527514</v>
+        <v>-1.583603209590127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006477989833873207</v>
+        <v>0.008225151058516969</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.268562805630759</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07080949706023316</v>
+        <v>-0.05065260819285656</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.491150048462289</v>
+        <v>-1.567147626686489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01488459768041973</v>
+        <v>-0.01125490958670034</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2494331616780816</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1426178233930918</v>
+        <v>-0.1233030347556111</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.477192433904155</v>
+        <v>-1.556417538336583</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04472485218203816</v>
+        <v>-0.04079767447439295</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2329242353893186</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.21503057306853</v>
+        <v>-0.184475713885841</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.483390134194277</v>
+        <v>-1.560785441398192</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07440927879064783</v>
+        <v>-0.07460917921905302</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2177977592995349</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2685991658237563</v>
+        <v>-0.2437154975351137</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.478859320153612</v>
+        <v>-1.559336556797035</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.112634333151435</v>
+        <v>-0.0978841999657263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2037670793956892</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3555165017019803</v>
+        <v>-0.3226840368507692</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.478169899778483</v>
+        <v>-1.558311870349068</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1314171033259162</v>
+        <v>-0.1209797825325713</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.189615254012243</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4309859965109843</v>
+        <v>-0.3941744113211252</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.500961696654917</v>
+        <v>-1.57220731115191</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1544780574720925</v>
+        <v>-0.1456241999147762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1745104524376578</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4945716469541682</v>
+        <v>-0.4722803881583079</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.516573605309538</v>
+        <v>-1.584923024623338</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1895314633034589</v>
+        <v>-0.1728893591339467</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1580588770000719</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5681035242248512</v>
+        <v>-0.5411531688299408</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.547004116981644</v>
+        <v>-1.610792815891475</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2108657184735684</v>
+        <v>-0.1966759360950427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1402798147652824</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6238537074822003</v>
+        <v>-0.5943502930725402</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.572371796150086</v>
+        <v>-1.646161025547102</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2221199551908683</v>
+        <v>-0.2121800244398545</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1216384708416548</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6773435992813615</v>
+        <v>-0.6444702099329966</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.618596015685324</v>
+        <v>-1.688365200246537</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.256609862176809</v>
+        <v>-0.2435565216038623</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1028363670636675</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7349054785473277</v>
+        <v>-0.6970928171963212</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.661837468985696</v>
+        <v>-1.726629605085357</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.275879004259772</v>
+        <v>-0.2689737823746259</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08413635643288159</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8141620633621812</v>
+        <v>-0.7660679091108387</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.706356238803004</v>
+        <v>-1.77148127994682</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3060718390445618</v>
+        <v>-0.2887009640218874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.06616489350976332</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8954719561207715</v>
+        <v>-0.8274137303444117</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.745373811791366</v>
+        <v>-1.810554730613988</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3240014908552979</v>
+        <v>-0.3132273299699947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.04924672184698804</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9477577232921377</v>
+        <v>-0.8811475951073745</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.773438572724158</v>
+        <v>-1.844867560448783</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3484412857517337</v>
+        <v>-0.3352163770945653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.03367912161360298</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9970528541330327</v>
+        <v>-0.9060139491856828</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.805515508397144</v>
+        <v>-1.880879543925021</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3749729520603781</v>
+        <v>-0.3562610127463555</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.01947716994616251</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.02304305786395</v>
+        <v>-0.9222436603454142</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.837684524188727</v>
+        <v>-1.930629566291972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3928034406664723</v>
+        <v>-0.3763643849636079</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.006530257451161051</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.020476619686669</v>
+        <v>-0.9200077661836066</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.871605423262318</v>
+        <v>-1.958093838929987</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4195350074035218</v>
+        <v>-0.3931245405672176</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.005378726605112985</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.019892658592666</v>
+        <v>-0.9359683200735955</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.896397011432364</v>
+        <v>-1.985711578432329</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.429330128395376</v>
+        <v>-0.4019894162583831</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.01612439475631985</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.027159117866151</v>
+        <v>-0.9285901054424985</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.940921290316597</v>
+        <v>-2.026812365727733</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4339246902104527</v>
+        <v>-0.4078557855234707</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.02561499767902459</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9923969055722253</v>
+        <v>-0.8876656082886807</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.957330439656156</v>
+        <v>-2.057283014887432</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4461028761519562</v>
+        <v>-0.4207344099739529</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.03362932641010813</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9367671347776556</v>
+        <v>-0.8395399736549122</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.998030639085189</v>
+        <v>-2.090769484683543</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4488747238245667</v>
+        <v>-0.4163964132756483</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.04024963175550259</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.878925080108098</v>
+        <v>-0.7786836723680637</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.021699164612187</v>
+        <v>-2.119382004270547</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4550716371051275</v>
+        <v>-0.4242303064423618</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04567057486419836</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.787490309351741</v>
+        <v>-0.6920166055301266</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.058522554945456</v>
+        <v>-2.141800758615233</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4454260479297968</v>
+        <v>-0.4189116958314868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05009114391181749</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6967087565307238</v>
+        <v>-0.5901870124966998</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056344899491137</v>
+        <v>-2.129470679828524</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4291522642346691</v>
+        <v>-0.4082917888200711</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05368530513340099</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5840184315603224</v>
+        <v>-0.4806998164381453</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.065083853652598</v>
+        <v>-2.126727951509658</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4211074525057013</v>
+        <v>-0.4003508623531091</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05717426102995204</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4260734828334049</v>
+        <v>-0.3241982432454605</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.050635145128618</v>
+        <v>-2.105629799207743</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3952762247060356</v>
+        <v>-0.3764619741491285</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06030393495089111</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2885671723965768</v>
+        <v>-0.1799252246061608</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.017601992839442</v>
+        <v>-2.072429013882148</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.376553267258164</v>
+        <v>-0.3556298310787139</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.06202104463715184</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.08573119833016368</v>
+        <v>0.01666818962517386</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.980932069370499</v>
+        <v>-2.043548124034962</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3517136715049178</v>
+        <v>-0.32627909652382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.06132642078423253</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08882122614559738</v>
+        <v>0.183954941837011</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.936981520455981</v>
+        <v>-2.001484037037323</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3361607885673457</v>
+        <v>-0.2980034170287744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.05779270099530255</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2921183878145516</v>
+        <v>0.3957502327418676</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.881545354013331</v>
+        <v>-1.939191443302287</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.294132904009496</v>
+        <v>-0.2641494137678392</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0515807709684228</v>
       </c>
       <c r="E84" t="n">
-        <v>0.510612704099664</v>
+        <v>0.59332111284753</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.803701451359845</v>
+        <v>-1.85202777343158</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2666788624957694</v>
+        <v>-0.2284475120584971</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04455574954511116</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6971796165283132</v>
+        <v>0.7699732788311061</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.688510010005697</v>
+        <v>-1.735120651235214</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2442427939407494</v>
+        <v>-0.1977793234990745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03869781955022418</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9086113090161494</v>
+        <v>0.9892703448680819</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.602252188139298</v>
+        <v>-1.636892413951323</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2102439809206546</v>
+        <v>-0.1642794745404319</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.03631196984196266</v>
       </c>
       <c r="E87" t="n">
-        <v>1.124096100741335</v>
+        <v>1.19268083591377</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.487356662379954</v>
+        <v>-1.505845877988313</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1685702506650976</v>
+        <v>-0.1322639256131759</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03854792752027263</v>
       </c>
       <c r="E88" t="n">
-        <v>1.29872565215404</v>
+        <v>1.353100142699372</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.328657758493934</v>
+        <v>-1.356585579763172</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1439163891681649</v>
+        <v>-0.1016917522201527</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04663584638524571</v>
       </c>
       <c r="E89" t="n">
-        <v>1.43452887390162</v>
+        <v>1.481544825054872</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.14646583221294</v>
+        <v>-1.176303725685876</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1161522658875421</v>
+        <v>-0.07425345089763907</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.06086152166062442</v>
       </c>
       <c r="E90" t="n">
-        <v>1.551179430981214</v>
+        <v>1.594268204426821</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9622465693037106</v>
+        <v>-0.9886090285568151</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08906339680995724</v>
+        <v>-0.05337880931094935</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08172671048969185</v>
       </c>
       <c r="E91" t="n">
-        <v>1.623266358698543</v>
+        <v>1.67773056833379</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7695496394071558</v>
+        <v>-0.789421630813577</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09305983135893969</v>
+        <v>-0.05546595866579406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1087362113729037</v>
       </c>
       <c r="E92" t="n">
-        <v>1.692030532050806</v>
+        <v>1.726062399472449</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5709304625667072</v>
+        <v>-0.5756336317011537</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08589017426141506</v>
+        <v>-0.05092963555820548</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1414433318328649</v>
       </c>
       <c r="E93" t="n">
-        <v>1.705030355973629</v>
+        <v>1.727257079985516</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003115118750765</v>
+        <v>-0.4001399437908548</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0880339883046266</v>
+        <v>-0.05995348718062232</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1774792315041709</v>
       </c>
       <c r="E94" t="n">
-        <v>1.692926148930826</v>
+        <v>1.711798638195222</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2162520119066593</v>
+        <v>-0.2135147926547174</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1034058590432491</v>
+        <v>-0.0862222922960095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2129759065629873</v>
       </c>
       <c r="E95" t="n">
-        <v>1.661719645831919</v>
+        <v>1.677110404799997</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07289035033859267</v>
+        <v>-0.07700168828343007</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1100183133718333</v>
+        <v>-0.08970244857320532</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2439292509599668</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606610088356939</v>
+        <v>1.605234395644923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02847175901580772</v>
+        <v>0.04145899078565969</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1191334581032856</v>
+        <v>-0.1088519652029495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2674786355608455</v>
       </c>
       <c r="E97" t="n">
-        <v>1.519344894252908</v>
+        <v>1.500974517088208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09084069267822617</v>
+        <v>0.1054224058179557</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.139011745586192</v>
+        <v>-0.1342534857825</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2796721479970563</v>
       </c>
       <c r="E98" t="n">
-        <v>1.381994411709089</v>
+        <v>1.377310130804098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1405718268157214</v>
+        <v>0.1514168185614831</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1477758840535942</v>
+        <v>-0.1422857053584974</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2800407965656597</v>
       </c>
       <c r="E99" t="n">
-        <v>1.254405995755576</v>
+        <v>1.24935182035708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1488952399291594</v>
+        <v>0.1684335392818649</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1618413189215371</v>
+        <v>-0.1587279090996044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2661782432120987</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124837463747467</v>
+        <v>1.123247704434954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1639617509582496</v>
+        <v>0.1911308950110208</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1689826436748784</v>
+        <v>-0.1659337686369189</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2448275677247925</v>
       </c>
       <c r="E101" t="n">
-        <v>1.016426896767883</v>
+        <v>1.00673093898067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1768655597146727</v>
+        <v>0.2006584327522539</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1930147676188973</v>
+        <v>-0.1892213815365626</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2168629156669064</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8989452575922419</v>
+        <v>0.8930914804801247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1685264064100216</v>
+        <v>0.2050530941389254</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1919066581575016</v>
+        <v>-0.1976077554148527</v>
       </c>
     </row>
   </sheetData>
